--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c202_SWT_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c202_SWT_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2660" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5320" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -332,10 +344,10 @@
       <c r="I7">
         <f>((C7-C6)^2+(D7- D6)^2)^.5</f>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="2" t="s">
+      <c r="J7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L7" t="n">
@@ -379,28 +391,28 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="2">
+      <c r="A9" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B9" t="s" s="2">
+      <c r="B9" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C9" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s" s="2">
+      <c r="C9" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E9" t="s" s="2">
+      <c r="E9" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F9" t="s" s="2">
+      <c r="F9" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G9" t="s" s="2">
+      <c r="G9" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H9" t="s" s="2">
+      <c r="H9" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -425,28 +437,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="s" s="2">
+      <c r="B11" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C11" t="s" s="2">
+      <c r="C11" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D11" t="s" s="2">
+      <c r="D11" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E11" t="s" s="2">
+      <c r="E11" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F11" t="s" s="2">
+      <c r="F11" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G11" t="s" s="2">
+      <c r="G11" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H11" t="s" s="2">
+      <c r="H11" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I11" t="s" s="2">
+      <c r="I11" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -505,10 +517,10 @@
       <c r="I13">
         <f>((C13-C12)^2+(D13- D12)^2)^.5</f>
       </c>
-      <c r="J13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="2" t="s">
+      <c r="J13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L13" t="n">
@@ -552,28 +564,28 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="2">
+      <c r="A15" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B15" t="s" s="2">
+      <c r="B15" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C15" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D15" t="s" s="2">
+      <c r="C15" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E15" t="s" s="2">
+      <c r="E15" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F15" t="s" s="2">
+      <c r="F15" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G15" t="s" s="2">
+      <c r="G15" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H15" t="s" s="2">
+      <c r="H15" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -598,28 +610,28 @@
       </c>
     </row>
     <row r="17">
-      <c r="B17" t="s" s="2">
+      <c r="B17" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C17" t="s" s="2">
+      <c r="C17" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D17" t="s" s="2">
+      <c r="D17" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E17" t="s" s="2">
+      <c r="E17" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F17" t="s" s="2">
+      <c r="F17" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G17" t="s" s="2">
+      <c r="G17" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H17" t="s" s="2">
+      <c r="H17" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I17" t="s" s="2">
+      <c r="I17" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -678,10 +690,10 @@
       <c r="I19">
         <f>((C19-C18)^2+(D19- D18)^2)^.5</f>
       </c>
-      <c r="J19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="2" t="s">
+      <c r="J19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L19" t="n">
@@ -725,28 +737,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="2">
+      <c r="A21" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B21" t="s" s="2">
+      <c r="B21" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C21" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D21" t="s" s="2">
+      <c r="C21" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E21" t="s" s="2">
+      <c r="E21" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F21" t="s" s="2">
+      <c r="F21" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G21" t="s" s="2">
+      <c r="G21" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H21" t="s" s="2">
+      <c r="H21" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -771,28 +783,28 @@
       </c>
     </row>
     <row r="23">
-      <c r="B23" t="s" s="2">
+      <c r="B23" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C23" t="s" s="2">
+      <c r="C23" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D23" t="s" s="2">
+      <c r="D23" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E23" t="s" s="2">
+      <c r="E23" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F23" t="s" s="2">
+      <c r="F23" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G23" t="s" s="2">
+      <c r="G23" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H23" t="s" s="2">
+      <c r="H23" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I23" t="s" s="2">
+      <c r="I23" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -851,10 +863,10 @@
       <c r="I25">
         <f>((C25-C24)^2+(D25- D24)^2)^.5</f>
       </c>
-      <c r="J25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K25" s="2" t="s">
+      <c r="J25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L25" t="n">
@@ -898,28 +910,28 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s" s="2">
+      <c r="A27" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B27" t="s" s="2">
+      <c r="B27" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C27" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D27" t="s" s="2">
+      <c r="C27" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D27" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E27" t="s" s="2">
+      <c r="E27" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F27" t="s" s="2">
+      <c r="F27" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G27" t="s" s="2">
+      <c r="G27" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H27" t="s" s="2">
+      <c r="H27" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -944,28 +956,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="B29" t="s" s="2">
+      <c r="B29" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C29" t="s" s="2">
+      <c r="C29" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D29" t="s" s="2">
+      <c r="D29" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E29" t="s" s="2">
+      <c r="E29" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F29" t="s" s="2">
+      <c r="F29" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G29" t="s" s="2">
+      <c r="G29" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H29" t="s" s="2">
+      <c r="H29" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I29" t="s" s="2">
+      <c r="I29" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1024,10 +1036,10 @@
       <c r="I31">
         <f>((C31-C30)^2+(D31- D30)^2)^.5</f>
       </c>
-      <c r="J31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K31" s="2" t="s">
+      <c r="J31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K31" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L31" t="n">
@@ -1071,28 +1083,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s" s="2">
+      <c r="A33" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B33" t="s" s="2">
+      <c r="B33" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C33" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D33" t="s" s="2">
+      <c r="C33" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D33" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E33" t="s" s="2">
+      <c r="E33" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F33" t="s" s="2">
+      <c r="F33" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G33" t="s" s="2">
+      <c r="G33" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H33" t="s" s="2">
+      <c r="H33" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1117,28 +1129,28 @@
       </c>
     </row>
     <row r="35">
-      <c r="B35" t="s" s="2">
+      <c r="B35" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C35" t="s" s="2">
+      <c r="C35" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D35" t="s" s="2">
+      <c r="D35" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E35" t="s" s="2">
+      <c r="E35" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F35" t="s" s="2">
+      <c r="F35" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G35" t="s" s="2">
+      <c r="G35" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H35" t="s" s="2">
+      <c r="H35" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I35" t="s" s="2">
+      <c r="I35" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1197,10 +1209,10 @@
       <c r="I37">
         <f>((C37-C36)^2+(D37- D36)^2)^.5</f>
       </c>
-      <c r="J37" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K37" s="2" t="s">
+      <c r="J37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K37" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L37" t="n">
@@ -1244,28 +1256,28 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="s" s="2">
+      <c r="A39" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B39" t="s" s="2">
+      <c r="B39" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C39" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D39" t="s" s="2">
+      <c r="C39" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D39" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E39" t="s" s="2">
+      <c r="E39" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F39" t="s" s="2">
+      <c r="F39" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G39" t="s" s="2">
+      <c r="G39" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H39" t="s" s="2">
+      <c r="H39" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1290,28 +1302,28 @@
       </c>
     </row>
     <row r="41">
-      <c r="B41" t="s" s="2">
+      <c r="B41" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C41" t="s" s="2">
+      <c r="C41" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D41" t="s" s="2">
+      <c r="D41" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E41" t="s" s="2">
+      <c r="E41" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F41" t="s" s="2">
+      <c r="F41" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G41" t="s" s="2">
+      <c r="G41" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H41" t="s" s="2">
+      <c r="H41" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I41" t="s" s="2">
+      <c r="I41" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1370,10 +1382,10 @@
       <c r="I43">
         <f>((C43-C42)^2+(D43- D42)^2)^.5</f>
       </c>
-      <c r="J43" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K43" s="2" t="s">
+      <c r="J43" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K43" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L43" t="n">
@@ -1417,28 +1429,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="2">
+      <c r="A45" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B45" t="s" s="2">
+      <c r="B45" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C45" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D45" t="s" s="2">
+      <c r="C45" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D45" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E45" t="s" s="2">
+      <c r="E45" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F45" t="s" s="2">
+      <c r="F45" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G45" t="s" s="2">
+      <c r="G45" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H45" t="s" s="2">
+      <c r="H45" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1463,28 +1475,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="B47" t="s" s="2">
+      <c r="B47" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C47" t="s" s="2">
+      <c r="C47" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D47" t="s" s="2">
+      <c r="D47" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E47" t="s" s="2">
+      <c r="E47" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F47" t="s" s="2">
+      <c r="F47" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G47" t="s" s="2">
+      <c r="G47" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H47" t="s" s="2">
+      <c r="H47" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I47" t="s" s="2">
+      <c r="I47" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2239,10 +2251,10 @@
       <c r="I73">
         <f>((C73-C72)^2+(D73- D72)^2)^.5</f>
       </c>
-      <c r="J73" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K73" s="2" t="s">
+      <c r="J73" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K73" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L73" t="n">
@@ -2286,28 +2298,28 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="s" s="2">
+      <c r="A75" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B75" t="s" s="2">
+      <c r="B75" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C75" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D75" t="s" s="2">
+      <c r="C75" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D75" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E75" t="s" s="2">
+      <c r="E75" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F75" t="s" s="2">
+      <c r="F75" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G75" t="s" s="2">
+      <c r="G75" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H75" t="s" s="2">
+      <c r="H75" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2332,28 +2344,28 @@
       </c>
     </row>
     <row r="77">
-      <c r="B77" t="s" s="2">
+      <c r="B77" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C77" t="s" s="2">
+      <c r="C77" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D77" t="s" s="2">
+      <c r="D77" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E77" t="s" s="2">
+      <c r="E77" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F77" t="s" s="2">
+      <c r="F77" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G77" t="s" s="2">
+      <c r="G77" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H77" t="s" s="2">
+      <c r="H77" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I77" t="s" s="2">
+      <c r="I77" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2412,10 +2424,10 @@
       <c r="I79">
         <f>((C79-C78)^2+(D79- D78)^2)^.5</f>
       </c>
-      <c r="J79" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K79" s="2" t="s">
+      <c r="J79" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K79" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L79" t="n">
@@ -2459,28 +2471,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="s" s="2">
+      <c r="A81" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B81" t="s" s="2">
+      <c r="B81" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C81" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D81" t="s" s="2">
+      <c r="C81" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D81" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E81" t="s" s="2">
+      <c r="E81" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F81" t="s" s="2">
+      <c r="F81" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G81" t="s" s="2">
+      <c r="G81" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H81" t="s" s="2">
+      <c r="H81" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2505,28 +2517,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="B83" t="s" s="2">
+      <c r="B83" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C83" t="s" s="2">
+      <c r="C83" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D83" t="s" s="2">
+      <c r="D83" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E83" t="s" s="2">
+      <c r="E83" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F83" t="s" s="2">
+      <c r="F83" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G83" t="s" s="2">
+      <c r="G83" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H83" t="s" s="2">
+      <c r="H83" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I83" t="s" s="2">
+      <c r="I83" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2585,10 +2597,10 @@
       <c r="I85">
         <f>((C85-C84)^2+(D85- D84)^2)^.5</f>
       </c>
-      <c r="J85" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K85" s="2" t="s">
+      <c r="J85" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K85" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L85" t="n">
@@ -2632,28 +2644,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="s" s="2">
+      <c r="A87" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B87" t="s" s="2">
+      <c r="B87" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C87" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D87" t="s" s="2">
+      <c r="C87" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D87" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E87" t="s" s="2">
+      <c r="E87" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F87" t="s" s="2">
+      <c r="F87" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G87" t="s" s="2">
+      <c r="G87" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H87" t="s" s="2">
+      <c r="H87" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2678,28 +2690,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="B89" t="s" s="2">
+      <c r="B89" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C89" t="s" s="2">
+      <c r="C89" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D89" t="s" s="2">
+      <c r="D89" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E89" t="s" s="2">
+      <c r="E89" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F89" t="s" s="2">
+      <c r="F89" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G89" t="s" s="2">
+      <c r="G89" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H89" t="s" s="2">
+      <c r="H89" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I89" t="s" s="2">
+      <c r="I89" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2758,10 +2770,10 @@
       <c r="I91">
         <f>((C91-C90)^2+(D91- D90)^2)^.5</f>
       </c>
-      <c r="J91" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K91" s="2" t="s">
+      <c r="J91" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K91" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L91" t="n">
@@ -2805,28 +2817,28 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="s" s="2">
+      <c r="A93" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B93" t="s" s="2">
+      <c r="B93" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C93" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D93" t="s" s="2">
+      <c r="C93" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D93" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E93" t="s" s="2">
+      <c r="E93" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F93" t="s" s="2">
+      <c r="F93" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G93" t="s" s="2">
+      <c r="G93" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H93" t="s" s="2">
+      <c r="H93" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2851,28 +2863,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="B95" t="s" s="2">
+      <c r="B95" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C95" t="s" s="2">
+      <c r="C95" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D95" t="s" s="2">
+      <c r="D95" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E95" t="s" s="2">
+      <c r="E95" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F95" t="s" s="2">
+      <c r="F95" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G95" t="s" s="2">
+      <c r="G95" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H95" t="s" s="2">
+      <c r="H95" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I95" t="s" s="2">
+      <c r="I95" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2931,10 +2943,10 @@
       <c r="I97">
         <f>((C97-C96)^2+(D97- D96)^2)^.5</f>
       </c>
-      <c r="J97" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K97" s="2" t="s">
+      <c r="J97" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K97" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L97" t="n">
@@ -2978,28 +2990,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="s" s="2">
+      <c r="A99" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B99" t="s" s="2">
+      <c r="B99" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C99" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D99" t="s" s="2">
+      <c r="C99" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D99" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E99" t="s" s="2">
+      <c r="E99" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F99" t="s" s="2">
+      <c r="F99" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G99" t="s" s="2">
+      <c r="G99" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H99" t="s" s="2">
+      <c r="H99" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3024,28 +3036,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="B101" t="s" s="2">
+      <c r="B101" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C101" t="s" s="2">
+      <c r="C101" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D101" t="s" s="2">
+      <c r="D101" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E101" t="s" s="2">
+      <c r="E101" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F101" t="s" s="2">
+      <c r="F101" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G101" t="s" s="2">
+      <c r="G101" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H101" t="s" s="2">
+      <c r="H101" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I101" t="s" s="2">
+      <c r="I101" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3104,10 +3116,10 @@
       <c r="I103">
         <f>((C103-C102)^2+(D103- D102)^2)^.5</f>
       </c>
-      <c r="J103" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K103" s="2" t="s">
+      <c r="J103" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K103" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L103" t="n">
@@ -3151,28 +3163,28 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="s" s="2">
+      <c r="A105" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B105" t="s" s="2">
+      <c r="B105" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C105" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D105" t="s" s="2">
+      <c r="C105" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D105" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E105" t="s" s="2">
+      <c r="E105" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F105" t="s" s="2">
+      <c r="F105" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G105" t="s" s="2">
+      <c r="G105" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H105" t="s" s="2">
+      <c r="H105" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3197,28 +3209,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="B107" t="s" s="2">
+      <c r="B107" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C107" t="s" s="2">
+      <c r="C107" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D107" t="s" s="2">
+      <c r="D107" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E107" t="s" s="2">
+      <c r="E107" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F107" t="s" s="2">
+      <c r="F107" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G107" t="s" s="2">
+      <c r="G107" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H107" t="s" s="2">
+      <c r="H107" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I107" t="s" s="2">
+      <c r="I107" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3277,10 +3289,10 @@
       <c r="I109">
         <f>((C109-C108)^2+(D109- D108)^2)^.5</f>
       </c>
-      <c r="J109" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K109" s="2" t="s">
+      <c r="J109" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K109" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L109" t="n">
@@ -3324,28 +3336,28 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="s" s="2">
+      <c r="A111" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B111" t="s" s="2">
+      <c r="B111" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C111" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D111" t="s" s="2">
+      <c r="C111" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D111" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E111" t="s" s="2">
+      <c r="E111" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F111" t="s" s="2">
+      <c r="F111" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G111" t="s" s="2">
+      <c r="G111" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H111" t="s" s="2">
+      <c r="H111" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3370,28 +3382,28 @@
       </c>
     </row>
     <row r="113">
-      <c r="B113" t="s" s="2">
+      <c r="B113" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C113" t="s" s="2">
+      <c r="C113" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D113" t="s" s="2">
+      <c r="D113" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E113" t="s" s="2">
+      <c r="E113" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F113" t="s" s="2">
+      <c r="F113" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G113" t="s" s="2">
+      <c r="G113" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H113" t="s" s="2">
+      <c r="H113" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I113" t="s" s="2">
+      <c r="I113" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3450,10 +3462,10 @@
       <c r="I115">
         <f>((C115-C114)^2+(D115- D114)^2)^.5</f>
       </c>
-      <c r="J115" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K115" s="2" t="s">
+      <c r="J115" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K115" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L115" t="n">
@@ -3497,28 +3509,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="s" s="2">
+      <c r="A117" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B117" t="s" s="2">
+      <c r="B117" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C117" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D117" t="s" s="2">
+      <c r="C117" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D117" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E117" t="s" s="2">
+      <c r="E117" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F117" t="s" s="2">
+      <c r="F117" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G117" t="s" s="2">
+      <c r="G117" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H117" t="s" s="2">
+      <c r="H117" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3543,28 +3555,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="B119" t="s" s="2">
+      <c r="B119" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C119" t="s" s="2">
+      <c r="C119" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D119" t="s" s="2">
+      <c r="D119" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E119" t="s" s="2">
+      <c r="E119" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F119" t="s" s="2">
+      <c r="F119" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G119" t="s" s="2">
+      <c r="G119" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H119" t="s" s="2">
+      <c r="H119" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I119" t="s" s="2">
+      <c r="I119" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3623,10 +3635,10 @@
       <c r="I121">
         <f>((C121-C120)^2+(D121- D120)^2)^.5</f>
       </c>
-      <c r="J121" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K121" s="2" t="s">
+      <c r="J121" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K121" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L121" t="n">
@@ -3670,28 +3682,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="s" s="2">
+      <c r="A123" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B123" t="s" s="2">
+      <c r="B123" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C123" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D123" t="s" s="2">
+      <c r="C123" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D123" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E123" t="s" s="2">
+      <c r="E123" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F123" t="s" s="2">
+      <c r="F123" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G123" t="s" s="2">
+      <c r="G123" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H123" t="s" s="2">
+      <c r="H123" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3716,28 +3728,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="B125" t="s" s="2">
+      <c r="B125" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C125" t="s" s="2">
+      <c r="C125" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D125" t="s" s="2">
+      <c r="D125" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E125" t="s" s="2">
+      <c r="E125" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F125" t="s" s="2">
+      <c r="F125" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G125" t="s" s="2">
+      <c r="G125" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H125" t="s" s="2">
+      <c r="H125" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I125" t="s" s="2">
+      <c r="I125" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3796,10 +3808,10 @@
       <c r="I127">
         <f>((C127-C126)^2+(D127- D126)^2)^.5</f>
       </c>
-      <c r="J127" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K127" s="2" t="s">
+      <c r="J127" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K127" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L127" t="n">
@@ -3843,28 +3855,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="s" s="2">
+      <c r="A129" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B129" t="s" s="2">
+      <c r="B129" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C129" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D129" t="s" s="2">
+      <c r="C129" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D129" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E129" t="s" s="2">
+      <c r="E129" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F129" t="s" s="2">
+      <c r="F129" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G129" t="s" s="2">
+      <c r="G129" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H129" t="s" s="2">
+      <c r="H129" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3889,28 +3901,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="B131" t="s" s="2">
+      <c r="B131" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C131" t="s" s="2">
+      <c r="C131" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D131" t="s" s="2">
+      <c r="D131" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E131" t="s" s="2">
+      <c r="E131" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F131" t="s" s="2">
+      <c r="F131" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G131" t="s" s="2">
+      <c r="G131" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H131" t="s" s="2">
+      <c r="H131" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I131" t="s" s="2">
+      <c r="I131" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3969,10 +3981,10 @@
       <c r="I133">
         <f>((C133-C132)^2+(D133- D132)^2)^.5</f>
       </c>
-      <c r="J133" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K133" s="2" t="s">
+      <c r="J133" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K133" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L133" t="n">
@@ -4016,28 +4028,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="s" s="2">
+      <c r="A135" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B135" t="s" s="2">
+      <c r="B135" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C135" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D135" t="s" s="2">
+      <c r="C135" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D135" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E135" t="s" s="2">
+      <c r="E135" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F135" t="s" s="2">
+      <c r="F135" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G135" t="s" s="2">
+      <c r="G135" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H135" t="s" s="2">
+      <c r="H135" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4062,28 +4074,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="B137" t="s" s="2">
+      <c r="B137" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C137" t="s" s="2">
+      <c r="C137" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D137" t="s" s="2">
+      <c r="D137" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E137" t="s" s="2">
+      <c r="E137" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F137" t="s" s="2">
+      <c r="F137" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G137" t="s" s="2">
+      <c r="G137" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H137" t="s" s="2">
+      <c r="H137" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I137" t="s" s="2">
+      <c r="I137" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4142,10 +4154,10 @@
       <c r="I139">
         <f>((C139-C138)^2+(D139- D138)^2)^.5</f>
       </c>
-      <c r="J139" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K139" s="2" t="s">
+      <c r="J139" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K139" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L139" t="n">
@@ -4189,28 +4201,28 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="s" s="2">
+      <c r="A141" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B141" t="s" s="2">
+      <c r="B141" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C141" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D141" t="s" s="2">
+      <c r="C141" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D141" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E141" t="s" s="2">
+      <c r="E141" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F141" t="s" s="2">
+      <c r="F141" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G141" t="s" s="2">
+      <c r="G141" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H141" t="s" s="2">
+      <c r="H141" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4235,28 +4247,28 @@
       </c>
     </row>
     <row r="143">
-      <c r="B143" t="s" s="2">
+      <c r="B143" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C143" t="s" s="2">
+      <c r="C143" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D143" t="s" s="2">
+      <c r="D143" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E143" t="s" s="2">
+      <c r="E143" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F143" t="s" s="2">
+      <c r="F143" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G143" t="s" s="2">
+      <c r="G143" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H143" t="s" s="2">
+      <c r="H143" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I143" t="s" s="2">
+      <c r="I143" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4315,10 +4327,10 @@
       <c r="I145">
         <f>((C145-C144)^2+(D145- D144)^2)^.5</f>
       </c>
-      <c r="J145" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K145" s="2" t="s">
+      <c r="J145" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K145" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L145" t="n">
@@ -4362,28 +4374,28 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="s" s="2">
+      <c r="A147" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B147" t="s" s="2">
+      <c r="B147" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C147" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D147" t="s" s="2">
+      <c r="C147" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D147" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E147" t="s" s="2">
+      <c r="E147" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F147" t="s" s="2">
+      <c r="F147" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G147" t="s" s="2">
+      <c r="G147" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H147" t="s" s="2">
+      <c r="H147" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4408,28 +4420,28 @@
       </c>
     </row>
     <row r="149">
-      <c r="B149" t="s" s="2">
+      <c r="B149" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C149" t="s" s="2">
+      <c r="C149" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D149" t="s" s="2">
+      <c r="D149" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E149" t="s" s="2">
+      <c r="E149" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F149" t="s" s="2">
+      <c r="F149" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G149" t="s" s="2">
+      <c r="G149" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H149" t="s" s="2">
+      <c r="H149" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I149" t="s" s="2">
+      <c r="I149" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4488,10 +4500,10 @@
       <c r="I151">
         <f>((C151-C150)^2+(D151- D150)^2)^.5</f>
       </c>
-      <c r="J151" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K151" s="2" t="s">
+      <c r="J151" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K151" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L151" t="n">
@@ -4535,28 +4547,28 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="s" s="2">
+      <c r="A153" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B153" t="s" s="2">
+      <c r="B153" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C153" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D153" t="s" s="2">
+      <c r="C153" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D153" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E153" t="s" s="2">
+      <c r="E153" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F153" t="s" s="2">
+      <c r="F153" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G153" t="s" s="2">
+      <c r="G153" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H153" t="s" s="2">
+      <c r="H153" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4581,28 +4593,28 @@
       </c>
     </row>
     <row r="155">
-      <c r="B155" t="s" s="2">
+      <c r="B155" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C155" t="s" s="2">
+      <c r="C155" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D155" t="s" s="2">
+      <c r="D155" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E155" t="s" s="2">
+      <c r="E155" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F155" t="s" s="2">
+      <c r="F155" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G155" t="s" s="2">
+      <c r="G155" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H155" t="s" s="2">
+      <c r="H155" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I155" t="s" s="2">
+      <c r="I155" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4661,10 +4673,10 @@
       <c r="I157">
         <f>((C157-C156)^2+(D157- D156)^2)^.5</f>
       </c>
-      <c r="J157" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K157" s="2" t="s">
+      <c r="J157" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K157" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L157" t="n">
@@ -4708,28 +4720,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="s" s="2">
+      <c r="A159" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B159" t="s" s="2">
+      <c r="B159" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C159" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D159" t="s" s="2">
+      <c r="C159" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D159" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E159" t="s" s="2">
+      <c r="E159" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F159" t="s" s="2">
+      <c r="F159" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G159" t="s" s="2">
+      <c r="G159" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H159" t="s" s="2">
+      <c r="H159" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4754,28 +4766,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="B161" t="s" s="2">
+      <c r="B161" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C161" t="s" s="2">
+      <c r="C161" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D161" t="s" s="2">
+      <c r="D161" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E161" t="s" s="2">
+      <c r="E161" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F161" t="s" s="2">
+      <c r="F161" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G161" t="s" s="2">
+      <c r="G161" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H161" t="s" s="2">
+      <c r="H161" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I161" t="s" s="2">
+      <c r="I161" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4834,10 +4846,10 @@
       <c r="I163">
         <f>((C163-C162)^2+(D163- D162)^2)^.5</f>
       </c>
-      <c r="J163" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K163" s="2" t="s">
+      <c r="J163" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K163" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L163" t="n">
@@ -4881,28 +4893,28 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="s" s="2">
+      <c r="A165" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B165" t="s" s="2">
+      <c r="B165" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C165" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D165" t="s" s="2">
+      <c r="C165" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D165" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E165" t="s" s="2">
+      <c r="E165" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F165" t="s" s="2">
+      <c r="F165" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G165" t="s" s="2">
+      <c r="G165" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H165" t="s" s="2">
+      <c r="H165" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4927,28 +4939,28 @@
       </c>
     </row>
     <row r="167">
-      <c r="B167" t="s" s="2">
+      <c r="B167" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C167" t="s" s="2">
+      <c r="C167" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D167" t="s" s="2">
+      <c r="D167" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E167" t="s" s="2">
+      <c r="E167" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F167" t="s" s="2">
+      <c r="F167" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G167" t="s" s="2">
+      <c r="G167" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H167" t="s" s="2">
+      <c r="H167" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I167" t="s" s="2">
+      <c r="I167" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5007,10 +5019,10 @@
       <c r="I169">
         <f>((C169-C168)^2+(D169- D168)^2)^.5</f>
       </c>
-      <c r="J169" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K169" s="2" t="s">
+      <c r="J169" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K169" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L169" t="n">
@@ -5054,28 +5066,28 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="s" s="2">
+      <c r="A171" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B171" t="s" s="2">
+      <c r="B171" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C171" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D171" t="s" s="2">
+      <c r="C171" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D171" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E171" t="s" s="2">
+      <c r="E171" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F171" t="s" s="2">
+      <c r="F171" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G171" t="s" s="2">
+      <c r="G171" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H171" t="s" s="2">
+      <c r="H171" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5100,28 +5112,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="B173" t="s" s="2">
+      <c r="B173" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C173" t="s" s="2">
+      <c r="C173" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D173" t="s" s="2">
+      <c r="D173" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E173" t="s" s="2">
+      <c r="E173" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F173" t="s" s="2">
+      <c r="F173" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G173" t="s" s="2">
+      <c r="G173" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H173" t="s" s="2">
+      <c r="H173" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I173" t="s" s="2">
+      <c r="I173" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5180,10 +5192,10 @@
       <c r="I175">
         <f>((C175-C174)^2+(D175- D174)^2)^.5</f>
       </c>
-      <c r="J175" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K175" s="2" t="s">
+      <c r="J175" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K175" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L175" t="n">
@@ -5227,28 +5239,28 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="s" s="2">
+      <c r="A177" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B177" t="s" s="2">
+      <c r="B177" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C177" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D177" t="s" s="2">
+      <c r="C177" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D177" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E177" t="s" s="2">
+      <c r="E177" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F177" t="s" s="2">
+      <c r="F177" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G177" t="s" s="2">
+      <c r="G177" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H177" t="s" s="2">
+      <c r="H177" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5273,28 +5285,28 @@
       </c>
     </row>
     <row r="179">
-      <c r="B179" t="s" s="2">
+      <c r="B179" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C179" t="s" s="2">
+      <c r="C179" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D179" t="s" s="2">
+      <c r="D179" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E179" t="s" s="2">
+      <c r="E179" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F179" t="s" s="2">
+      <c r="F179" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G179" t="s" s="2">
+      <c r="G179" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H179" t="s" s="2">
+      <c r="H179" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I179" t="s" s="2">
+      <c r="I179" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5353,10 +5365,10 @@
       <c r="I181">
         <f>((C181-C180)^2+(D181- D180)^2)^.5</f>
       </c>
-      <c r="J181" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K181" s="2" t="s">
+      <c r="J181" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K181" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L181" t="n">
@@ -5400,28 +5412,28 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="s" s="2">
+      <c r="A183" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B183" t="s" s="2">
+      <c r="B183" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C183" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D183" t="s" s="2">
+      <c r="C183" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D183" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E183" t="s" s="2">
+      <c r="E183" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F183" t="s" s="2">
+      <c r="F183" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G183" t="s" s="2">
+      <c r="G183" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H183" t="s" s="2">
+      <c r="H183" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5446,28 +5458,28 @@
       </c>
     </row>
     <row r="185">
-      <c r="B185" t="s" s="2">
+      <c r="B185" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C185" t="s" s="2">
+      <c r="C185" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D185" t="s" s="2">
+      <c r="D185" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E185" t="s" s="2">
+      <c r="E185" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F185" t="s" s="2">
+      <c r="F185" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G185" t="s" s="2">
+      <c r="G185" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H185" t="s" s="2">
+      <c r="H185" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I185" t="s" s="2">
+      <c r="I185" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5526,10 +5538,10 @@
       <c r="I187">
         <f>((C187-C186)^2+(D187- D186)^2)^.5</f>
       </c>
-      <c r="J187" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K187" s="2" t="s">
+      <c r="J187" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K187" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L187" t="n">
@@ -5573,28 +5585,28 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="s" s="2">
+      <c r="A189" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B189" t="s" s="2">
+      <c r="B189" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C189" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D189" t="s" s="2">
+      <c r="C189" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D189" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E189" t="s" s="2">
+      <c r="E189" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F189" t="s" s="2">
+      <c r="F189" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G189" t="s" s="2">
+      <c r="G189" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H189" t="s" s="2">
+      <c r="H189" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5619,28 +5631,28 @@
       </c>
     </row>
     <row r="191">
-      <c r="B191" t="s" s="2">
+      <c r="B191" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C191" t="s" s="2">
+      <c r="C191" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D191" t="s" s="2">
+      <c r="D191" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E191" t="s" s="2">
+      <c r="E191" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F191" t="s" s="2">
+      <c r="F191" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G191" t="s" s="2">
+      <c r="G191" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H191" t="s" s="2">
+      <c r="H191" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I191" t="s" s="2">
+      <c r="I191" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5699,10 +5711,10 @@
       <c r="I193">
         <f>((C193-C192)^2+(D193- D192)^2)^.5</f>
       </c>
-      <c r="J193" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K193" s="2" t="s">
+      <c r="J193" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K193" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L193" t="n">
@@ -5746,28 +5758,28 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="s" s="2">
+      <c r="A195" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B195" t="s" s="2">
+      <c r="B195" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C195" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D195" t="s" s="2">
+      <c r="C195" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D195" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E195" t="s" s="2">
+      <c r="E195" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F195" t="s" s="2">
+      <c r="F195" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G195" t="s" s="2">
+      <c r="G195" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H195" t="s" s="2">
+      <c r="H195" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5792,28 +5804,28 @@
       </c>
     </row>
     <row r="197">
-      <c r="B197" t="s" s="2">
+      <c r="B197" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C197" t="s" s="2">
+      <c r="C197" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D197" t="s" s="2">
+      <c r="D197" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E197" t="s" s="2">
+      <c r="E197" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F197" t="s" s="2">
+      <c r="F197" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G197" t="s" s="2">
+      <c r="G197" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H197" t="s" s="2">
+      <c r="H197" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I197" t="s" s="2">
+      <c r="I197" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5872,10 +5884,10 @@
       <c r="I199">
         <f>((C199-C198)^2+(D199- D198)^2)^.5</f>
       </c>
-      <c r="J199" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K199" s="2" t="s">
+      <c r="J199" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K199" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L199" t="n">
@@ -5919,28 +5931,28 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="s" s="2">
+      <c r="A201" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B201" t="s" s="2">
+      <c r="B201" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C201" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D201" t="s" s="2">
+      <c r="C201" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D201" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E201" t="s" s="2">
+      <c r="E201" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F201" t="s" s="2">
+      <c r="F201" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G201" t="s" s="2">
+      <c r="G201" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H201" t="s" s="2">
+      <c r="H201" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5965,28 +5977,28 @@
       </c>
     </row>
     <row r="203">
-      <c r="B203" t="s" s="2">
+      <c r="B203" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C203" t="s" s="2">
+      <c r="C203" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D203" t="s" s="2">
+      <c r="D203" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E203" t="s" s="2">
+      <c r="E203" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F203" t="s" s="2">
+      <c r="F203" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G203" t="s" s="2">
+      <c r="G203" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H203" t="s" s="2">
+      <c r="H203" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I203" t="s" s="2">
+      <c r="I203" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6045,10 +6057,10 @@
       <c r="I205">
         <f>((C205-C204)^2+(D205- D204)^2)^.5</f>
       </c>
-      <c r="J205" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K205" s="2" t="s">
+      <c r="J205" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K205" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L205" t="n">
@@ -6092,28 +6104,28 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="s" s="2">
+      <c r="A207" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B207" t="s" s="2">
+      <c r="B207" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C207" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D207" t="s" s="2">
+      <c r="C207" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D207" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E207" t="s" s="2">
+      <c r="E207" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F207" t="s" s="2">
+      <c r="F207" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G207" t="s" s="2">
+      <c r="G207" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H207" t="s" s="2">
+      <c r="H207" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6138,28 +6150,28 @@
       </c>
     </row>
     <row r="209">
-      <c r="B209" t="s" s="2">
+      <c r="B209" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C209" t="s" s="2">
+      <c r="C209" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D209" t="s" s="2">
+      <c r="D209" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E209" t="s" s="2">
+      <c r="E209" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F209" t="s" s="2">
+      <c r="F209" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G209" t="s" s="2">
+      <c r="G209" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H209" t="s" s="2">
+      <c r="H209" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I209" t="s" s="2">
+      <c r="I209" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6218,10 +6230,10 @@
       <c r="I211">
         <f>((C211-C210)^2+(D211- D210)^2)^.5</f>
       </c>
-      <c r="J211" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K211" s="2" t="s">
+      <c r="J211" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K211" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L211" t="n">
@@ -6265,28 +6277,28 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="s" s="2">
+      <c r="A213" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B213" t="s" s="2">
+      <c r="B213" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C213" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D213" t="s" s="2">
+      <c r="C213" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D213" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E213" t="s" s="2">
+      <c r="E213" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F213" t="s" s="2">
+      <c r="F213" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G213" t="s" s="2">
+      <c r="G213" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H213" t="s" s="2">
+      <c r="H213" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6311,28 +6323,28 @@
       </c>
     </row>
     <row r="215">
-      <c r="B215" t="s" s="2">
+      <c r="B215" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C215" t="s" s="2">
+      <c r="C215" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D215" t="s" s="2">
+      <c r="D215" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E215" t="s" s="2">
+      <c r="E215" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F215" t="s" s="2">
+      <c r="F215" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G215" t="s" s="2">
+      <c r="G215" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H215" t="s" s="2">
+      <c r="H215" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I215" t="s" s="2">
+      <c r="I215" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6391,10 +6403,10 @@
       <c r="I217">
         <f>((C217-C216)^2+(D217- D216)^2)^.5</f>
       </c>
-      <c r="J217" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K217" s="2" t="s">
+      <c r="J217" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K217" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L217" t="n">
@@ -6438,28 +6450,28 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="s" s="2">
+      <c r="A219" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B219" t="s" s="2">
+      <c r="B219" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C219" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D219" t="s" s="2">
+      <c r="C219" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D219" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E219" t="s" s="2">
+      <c r="E219" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F219" t="s" s="2">
+      <c r="F219" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G219" t="s" s="2">
+      <c r="G219" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H219" t="s" s="2">
+      <c r="H219" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6484,28 +6496,28 @@
       </c>
     </row>
     <row r="221">
-      <c r="B221" t="s" s="2">
+      <c r="B221" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C221" t="s" s="2">
+      <c r="C221" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D221" t="s" s="2">
+      <c r="D221" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E221" t="s" s="2">
+      <c r="E221" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F221" t="s" s="2">
+      <c r="F221" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G221" t="s" s="2">
+      <c r="G221" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H221" t="s" s="2">
+      <c r="H221" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I221" t="s" s="2">
+      <c r="I221" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6564,10 +6576,10 @@
       <c r="I223">
         <f>((C223-C222)^2+(D223- D222)^2)^.5</f>
       </c>
-      <c r="J223" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K223" s="2" t="s">
+      <c r="J223" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K223" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L223" t="n">
@@ -6611,28 +6623,28 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="s" s="2">
+      <c r="A225" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B225" t="s" s="2">
+      <c r="B225" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C225" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D225" t="s" s="2">
+      <c r="C225" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D225" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E225" t="s" s="2">
+      <c r="E225" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F225" t="s" s="2">
+      <c r="F225" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G225" t="s" s="2">
+      <c r="G225" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H225" t="s" s="2">
+      <c r="H225" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6657,28 +6669,28 @@
       </c>
     </row>
     <row r="227">
-      <c r="B227" t="s" s="2">
+      <c r="B227" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C227" t="s" s="2">
+      <c r="C227" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D227" t="s" s="2">
+      <c r="D227" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E227" t="s" s="2">
+      <c r="E227" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F227" t="s" s="2">
+      <c r="F227" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G227" t="s" s="2">
+      <c r="G227" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H227" t="s" s="2">
+      <c r="H227" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I227" t="s" s="2">
+      <c r="I227" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6737,10 +6749,10 @@
       <c r="I229">
         <f>((C229-C228)^2+(D229- D228)^2)^.5</f>
       </c>
-      <c r="J229" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K229" s="2" t="s">
+      <c r="J229" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K229" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L229" t="n">
@@ -6784,28 +6796,28 @@
       </c>
     </row>
     <row r="231">
-      <c r="A231" t="s" s="2">
+      <c r="A231" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B231" t="s" s="2">
+      <c r="B231" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C231" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D231" t="s" s="2">
+      <c r="C231" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D231" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E231" t="s" s="2">
+      <c r="E231" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F231" t="s" s="2">
+      <c r="F231" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G231" t="s" s="2">
+      <c r="G231" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H231" t="s" s="2">
+      <c r="H231" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6830,28 +6842,28 @@
       </c>
     </row>
     <row r="233">
-      <c r="B233" t="s" s="2">
+      <c r="B233" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C233" t="s" s="2">
+      <c r="C233" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D233" t="s" s="2">
+      <c r="D233" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E233" t="s" s="2">
+      <c r="E233" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F233" t="s" s="2">
+      <c r="F233" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G233" t="s" s="2">
+      <c r="G233" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H233" t="s" s="2">
+      <c r="H233" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I233" t="s" s="2">
+      <c r="I233" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6910,10 +6922,10 @@
       <c r="I235">
         <f>((C235-C234)^2+(D235- D234)^2)^.5</f>
       </c>
-      <c r="J235" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K235" s="2" t="s">
+      <c r="J235" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K235" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L235" t="n">
@@ -6957,28 +6969,28 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" t="s" s="2">
+      <c r="A237" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B237" t="s" s="2">
+      <c r="B237" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C237" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D237" t="s" s="2">
+      <c r="C237" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D237" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E237" t="s" s="2">
+      <c r="E237" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F237" t="s" s="2">
+      <c r="F237" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G237" t="s" s="2">
+      <c r="G237" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H237" t="s" s="2">
+      <c r="H237" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7003,28 +7015,28 @@
       </c>
     </row>
     <row r="239">
-      <c r="B239" t="s" s="2">
+      <c r="B239" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C239" t="s" s="2">
+      <c r="C239" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D239" t="s" s="2">
+      <c r="D239" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E239" t="s" s="2">
+      <c r="E239" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F239" t="s" s="2">
+      <c r="F239" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G239" t="s" s="2">
+      <c r="G239" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H239" t="s" s="2">
+      <c r="H239" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I239" t="s" s="2">
+      <c r="I239" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7083,10 +7095,10 @@
       <c r="I241">
         <f>((C241-C240)^2+(D241- D240)^2)^.5</f>
       </c>
-      <c r="J241" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K241" s="2" t="s">
+      <c r="J241" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K241" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L241" t="n">
@@ -7130,28 +7142,28 @@
       </c>
     </row>
     <row r="243">
-      <c r="A243" t="s" s="2">
+      <c r="A243" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B243" t="s" s="2">
+      <c r="B243" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C243" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D243" t="s" s="2">
+      <c r="C243" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D243" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E243" t="s" s="2">
+      <c r="E243" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F243" t="s" s="2">
+      <c r="F243" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G243" t="s" s="2">
+      <c r="G243" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H243" t="s" s="2">
+      <c r="H243" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7176,28 +7188,28 @@
       </c>
     </row>
     <row r="245">
-      <c r="B245" t="s" s="2">
+      <c r="B245" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C245" t="s" s="2">
+      <c r="C245" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D245" t="s" s="2">
+      <c r="D245" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E245" t="s" s="2">
+      <c r="E245" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F245" t="s" s="2">
+      <c r="F245" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G245" t="s" s="2">
+      <c r="G245" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H245" t="s" s="2">
+      <c r="H245" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I245" t="s" s="2">
+      <c r="I245" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7256,10 +7268,10 @@
       <c r="I247">
         <f>((C247-C246)^2+(D247- D246)^2)^.5</f>
       </c>
-      <c r="J247" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K247" s="2" t="s">
+      <c r="J247" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K247" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L247" t="n">
@@ -7303,28 +7315,28 @@
       </c>
     </row>
     <row r="249">
-      <c r="A249" t="s" s="2">
+      <c r="A249" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B249" t="s" s="2">
+      <c r="B249" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C249" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D249" t="s" s="2">
+      <c r="C249" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D249" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E249" t="s" s="2">
+      <c r="E249" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F249" t="s" s="2">
+      <c r="F249" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G249" t="s" s="2">
+      <c r="G249" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H249" t="s" s="2">
+      <c r="H249" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7349,28 +7361,28 @@
       </c>
     </row>
     <row r="251">
-      <c r="B251" t="s" s="2">
+      <c r="B251" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C251" t="s" s="2">
+      <c r="C251" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D251" t="s" s="2">
+      <c r="D251" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E251" t="s" s="2">
+      <c r="E251" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F251" t="s" s="2">
+      <c r="F251" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G251" t="s" s="2">
+      <c r="G251" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H251" t="s" s="2">
+      <c r="H251" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I251" t="s" s="2">
+      <c r="I251" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7429,10 +7441,10 @@
       <c r="I253">
         <f>((C253-C252)^2+(D253- D252)^2)^.5</f>
       </c>
-      <c r="J253" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K253" s="2" t="s">
+      <c r="J253" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K253" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L253" t="n">
@@ -7476,28 +7488,28 @@
       </c>
     </row>
     <row r="255">
-      <c r="A255" t="s" s="2">
+      <c r="A255" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B255" t="s" s="2">
+      <c r="B255" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C255" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D255" t="s" s="2">
+      <c r="C255" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D255" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E255" t="s" s="2">
+      <c r="E255" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F255" t="s" s="2">
+      <c r="F255" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G255" t="s" s="2">
+      <c r="G255" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H255" t="s" s="2">
+      <c r="H255" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7522,28 +7534,28 @@
       </c>
     </row>
     <row r="257">
-      <c r="B257" t="s" s="2">
+      <c r="B257" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C257" t="s" s="2">
+      <c r="C257" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D257" t="s" s="2">
+      <c r="D257" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E257" t="s" s="2">
+      <c r="E257" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F257" t="s" s="2">
+      <c r="F257" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G257" t="s" s="2">
+      <c r="G257" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H257" t="s" s="2">
+      <c r="H257" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I257" t="s" s="2">
+      <c r="I257" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7602,10 +7614,10 @@
       <c r="I259">
         <f>((C259-C258)^2+(D259- D258)^2)^.5</f>
       </c>
-      <c r="J259" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K259" s="2" t="s">
+      <c r="J259" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K259" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L259" t="n">
@@ -7649,28 +7661,28 @@
       </c>
     </row>
     <row r="261">
-      <c r="A261" t="s" s="2">
+      <c r="A261" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B261" t="s" s="2">
+      <c r="B261" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C261" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D261" t="s" s="2">
+      <c r="C261" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D261" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E261" t="s" s="2">
+      <c r="E261" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F261" t="s" s="2">
+      <c r="F261" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G261" t="s" s="2">
+      <c r="G261" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H261" t="s" s="2">
+      <c r="H261" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7695,28 +7707,28 @@
       </c>
     </row>
     <row r="263">
-      <c r="B263" t="s" s="2">
+      <c r="B263" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C263" t="s" s="2">
+      <c r="C263" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D263" t="s" s="2">
+      <c r="D263" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E263" t="s" s="2">
+      <c r="E263" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F263" t="s" s="2">
+      <c r="F263" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G263" t="s" s="2">
+      <c r="G263" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H263" t="s" s="2">
+      <c r="H263" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I263" t="s" s="2">
+      <c r="I263" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7775,10 +7787,10 @@
       <c r="I265">
         <f>((C265-C264)^2+(D265- D264)^2)^.5</f>
       </c>
-      <c r="J265" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K265" s="2" t="s">
+      <c r="J265" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K265" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L265" t="n">
@@ -7822,28 +7834,28 @@
       </c>
     </row>
     <row r="267">
-      <c r="A267" t="s" s="2">
+      <c r="A267" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B267" t="s" s="2">
+      <c r="B267" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C267" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D267" t="s" s="2">
+      <c r="C267" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D267" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E267" t="s" s="2">
+      <c r="E267" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F267" t="s" s="2">
+      <c r="F267" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G267" t="s" s="2">
+      <c r="G267" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H267" t="s" s="2">
+      <c r="H267" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7868,28 +7880,28 @@
       </c>
     </row>
     <row r="269">
-      <c r="B269" t="s" s="2">
+      <c r="B269" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C269" t="s" s="2">
+      <c r="C269" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D269" t="s" s="2">
+      <c r="D269" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E269" t="s" s="2">
+      <c r="E269" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F269" t="s" s="2">
+      <c r="F269" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G269" t="s" s="2">
+      <c r="G269" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H269" t="s" s="2">
+      <c r="H269" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I269" t="s" s="2">
+      <c r="I269" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7948,10 +7960,10 @@
       <c r="I271">
         <f>((C271-C270)^2+(D271- D270)^2)^.5</f>
       </c>
-      <c r="J271" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K271" s="2" t="s">
+      <c r="J271" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K271" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L271" t="n">
@@ -7995,28 +8007,28 @@
       </c>
     </row>
     <row r="273">
-      <c r="A273" t="s" s="2">
+      <c r="A273" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B273" t="s" s="2">
+      <c r="B273" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C273" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D273" t="s" s="2">
+      <c r="C273" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D273" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E273" t="s" s="2">
+      <c r="E273" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F273" t="s" s="2">
+      <c r="F273" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G273" t="s" s="2">
+      <c r="G273" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H273" t="s" s="2">
+      <c r="H273" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8041,28 +8053,28 @@
       </c>
     </row>
     <row r="275">
-      <c r="B275" t="s" s="2">
+      <c r="B275" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C275" t="s" s="2">
+      <c r="C275" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D275" t="s" s="2">
+      <c r="D275" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E275" t="s" s="2">
+      <c r="E275" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F275" t="s" s="2">
+      <c r="F275" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G275" t="s" s="2">
+      <c r="G275" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H275" t="s" s="2">
+      <c r="H275" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I275" t="s" s="2">
+      <c r="I275" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8121,10 +8133,10 @@
       <c r="I277">
         <f>((C277-C276)^2+(D277- D276)^2)^.5</f>
       </c>
-      <c r="J277" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K277" s="2" t="s">
+      <c r="J277" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K277" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L277" t="n">
@@ -8168,28 +8180,28 @@
       </c>
     </row>
     <row r="279">
-      <c r="A279" t="s" s="2">
+      <c r="A279" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B279" t="s" s="2">
+      <c r="B279" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C279" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D279" t="s" s="2">
+      <c r="C279" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D279" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E279" t="s" s="2">
+      <c r="E279" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F279" t="s" s="2">
+      <c r="F279" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G279" t="s" s="2">
+      <c r="G279" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H279" t="s" s="2">
+      <c r="H279" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8214,28 +8226,28 @@
       </c>
     </row>
     <row r="281">
-      <c r="B281" t="s" s="2">
+      <c r="B281" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C281" t="s" s="2">
+      <c r="C281" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D281" t="s" s="2">
+      <c r="D281" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E281" t="s" s="2">
+      <c r="E281" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F281" t="s" s="2">
+      <c r="F281" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G281" t="s" s="2">
+      <c r="G281" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H281" t="s" s="2">
+      <c r="H281" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I281" t="s" s="2">
+      <c r="I281" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8294,10 +8306,10 @@
       <c r="I283">
         <f>((C283-C282)^2+(D283- D282)^2)^.5</f>
       </c>
-      <c r="J283" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K283" s="2" t="s">
+      <c r="J283" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K283" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L283" t="n">
@@ -8341,28 +8353,28 @@
       </c>
     </row>
     <row r="285">
-      <c r="A285" t="s" s="2">
+      <c r="A285" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B285" t="s" s="2">
+      <c r="B285" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C285" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D285" t="s" s="2">
+      <c r="C285" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D285" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E285" t="s" s="2">
+      <c r="E285" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F285" t="s" s="2">
+      <c r="F285" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G285" t="s" s="2">
+      <c r="G285" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H285" t="s" s="2">
+      <c r="H285" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8387,28 +8399,28 @@
       </c>
     </row>
     <row r="287">
-      <c r="B287" t="s" s="2">
+      <c r="B287" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C287" t="s" s="2">
+      <c r="C287" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D287" t="s" s="2">
+      <c r="D287" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E287" t="s" s="2">
+      <c r="E287" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F287" t="s" s="2">
+      <c r="F287" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G287" t="s" s="2">
+      <c r="G287" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H287" t="s" s="2">
+      <c r="H287" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I287" t="s" s="2">
+      <c r="I287" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8467,10 +8479,10 @@
       <c r="I289">
         <f>((C289-C288)^2+(D289- D288)^2)^.5</f>
       </c>
-      <c r="J289" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K289" s="2" t="s">
+      <c r="J289" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K289" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L289" t="n">
@@ -8514,28 +8526,28 @@
       </c>
     </row>
     <row r="291">
-      <c r="A291" t="s" s="2">
+      <c r="A291" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B291" t="s" s="2">
+      <c r="B291" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C291" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D291" t="s" s="2">
+      <c r="C291" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D291" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E291" t="s" s="2">
+      <c r="E291" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F291" t="s" s="2">
+      <c r="F291" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G291" t="s" s="2">
+      <c r="G291" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H291" t="s" s="2">
+      <c r="H291" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8560,28 +8572,28 @@
       </c>
     </row>
     <row r="293">
-      <c r="B293" t="s" s="2">
+      <c r="B293" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C293" t="s" s="2">
+      <c r="C293" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D293" t="s" s="2">
+      <c r="D293" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E293" t="s" s="2">
+      <c r="E293" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F293" t="s" s="2">
+      <c r="F293" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G293" t="s" s="2">
+      <c r="G293" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H293" t="s" s="2">
+      <c r="H293" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I293" t="s" s="2">
+      <c r="I293" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8640,10 +8652,10 @@
       <c r="I295">
         <f>((C295-C294)^2+(D295- D294)^2)^.5</f>
       </c>
-      <c r="J295" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K295" s="2" t="s">
+      <c r="J295" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K295" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L295" t="n">
@@ -8687,28 +8699,28 @@
       </c>
     </row>
     <row r="297">
-      <c r="A297" t="s" s="2">
+      <c r="A297" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B297" t="s" s="2">
+      <c r="B297" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C297" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D297" t="s" s="2">
+      <c r="C297" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D297" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E297" t="s" s="2">
+      <c r="E297" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F297" t="s" s="2">
+      <c r="F297" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G297" t="s" s="2">
+      <c r="G297" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H297" t="s" s="2">
+      <c r="H297" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8733,28 +8745,28 @@
       </c>
     </row>
     <row r="299">
-      <c r="B299" t="s" s="2">
+      <c r="B299" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C299" t="s" s="2">
+      <c r="C299" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D299" t="s" s="2">
+      <c r="D299" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E299" t="s" s="2">
+      <c r="E299" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F299" t="s" s="2">
+      <c r="F299" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G299" t="s" s="2">
+      <c r="G299" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H299" t="s" s="2">
+      <c r="H299" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I299" t="s" s="2">
+      <c r="I299" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8813,10 +8825,10 @@
       <c r="I301">
         <f>((C301-C300)^2+(D301- D300)^2)^.5</f>
       </c>
-      <c r="J301" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K301" s="2" t="s">
+      <c r="J301" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K301" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L301" t="n">
@@ -8860,28 +8872,28 @@
       </c>
     </row>
     <row r="303">
-      <c r="A303" t="s" s="2">
+      <c r="A303" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B303" t="s" s="2">
+      <c r="B303" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C303" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D303" t="s" s="2">
+      <c r="C303" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D303" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E303" t="s" s="2">
+      <c r="E303" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F303" t="s" s="2">
+      <c r="F303" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G303" t="s" s="2">
+      <c r="G303" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H303" t="s" s="2">
+      <c r="H303" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8906,28 +8918,28 @@
       </c>
     </row>
     <row r="305">
-      <c r="B305" t="s" s="2">
+      <c r="B305" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C305" t="s" s="2">
+      <c r="C305" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D305" t="s" s="2">
+      <c r="D305" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E305" t="s" s="2">
+      <c r="E305" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F305" t="s" s="2">
+      <c r="F305" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G305" t="s" s="2">
+      <c r="G305" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H305" t="s" s="2">
+      <c r="H305" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I305" t="s" s="2">
+      <c r="I305" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8986,10 +8998,10 @@
       <c r="I307">
         <f>((C307-C306)^2+(D307- D306)^2)^.5</f>
       </c>
-      <c r="J307" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K307" s="2" t="s">
+      <c r="J307" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K307" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L307" t="n">
@@ -9033,28 +9045,28 @@
       </c>
     </row>
     <row r="309">
-      <c r="A309" t="s" s="2">
+      <c r="A309" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B309" t="s" s="2">
+      <c r="B309" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C309" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D309" t="s" s="2">
+      <c r="C309" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D309" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E309" t="s" s="2">
+      <c r="E309" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F309" t="s" s="2">
+      <c r="F309" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G309" t="s" s="2">
+      <c r="G309" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H309" t="s" s="2">
+      <c r="H309" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9079,28 +9091,28 @@
       </c>
     </row>
     <row r="311">
-      <c r="B311" t="s" s="2">
+      <c r="B311" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C311" t="s" s="2">
+      <c r="C311" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D311" t="s" s="2">
+      <c r="D311" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E311" t="s" s="2">
+      <c r="E311" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F311" t="s" s="2">
+      <c r="F311" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G311" t="s" s="2">
+      <c r="G311" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H311" t="s" s="2">
+      <c r="H311" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I311" t="s" s="2">
+      <c r="I311" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9159,10 +9171,10 @@
       <c r="I313">
         <f>((C313-C312)^2+(D313- D312)^2)^.5</f>
       </c>
-      <c r="J313" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K313" s="2" t="s">
+      <c r="J313" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K313" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L313" t="n">
@@ -9206,28 +9218,28 @@
       </c>
     </row>
     <row r="315">
-      <c r="A315" t="s" s="2">
+      <c r="A315" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B315" t="s" s="2">
+      <c r="B315" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C315" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D315" t="s" s="2">
+      <c r="C315" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D315" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E315" t="s" s="2">
+      <c r="E315" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F315" t="s" s="2">
+      <c r="F315" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G315" t="s" s="2">
+      <c r="G315" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H315" t="s" s="2">
+      <c r="H315" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9252,28 +9264,28 @@
       </c>
     </row>
     <row r="317">
-      <c r="B317" t="s" s="2">
+      <c r="B317" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C317" t="s" s="2">
+      <c r="C317" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D317" t="s" s="2">
+      <c r="D317" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E317" t="s" s="2">
+      <c r="E317" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F317" t="s" s="2">
+      <c r="F317" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G317" t="s" s="2">
+      <c r="G317" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H317" t="s" s="2">
+      <c r="H317" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I317" t="s" s="2">
+      <c r="I317" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9332,10 +9344,10 @@
       <c r="I319">
         <f>((C319-C318)^2+(D319- D318)^2)^.5</f>
       </c>
-      <c r="J319" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K319" s="2" t="s">
+      <c r="J319" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K319" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L319" t="n">
@@ -9379,28 +9391,28 @@
       </c>
     </row>
     <row r="321">
-      <c r="A321" t="s" s="2">
+      <c r="A321" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B321" t="s" s="2">
+      <c r="B321" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C321" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D321" t="s" s="2">
+      <c r="C321" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D321" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E321" t="s" s="2">
+      <c r="E321" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F321" t="s" s="2">
+      <c r="F321" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G321" t="s" s="2">
+      <c r="G321" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H321" t="s" s="2">
+      <c r="H321" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9425,28 +9437,28 @@
       </c>
     </row>
     <row r="323">
-      <c r="B323" t="s" s="2">
+      <c r="B323" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C323" t="s" s="2">
+      <c r="C323" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D323" t="s" s="2">
+      <c r="D323" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E323" t="s" s="2">
+      <c r="E323" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F323" t="s" s="2">
+      <c r="F323" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G323" t="s" s="2">
+      <c r="G323" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H323" t="s" s="2">
+      <c r="H323" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I323" t="s" s="2">
+      <c r="I323" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9505,10 +9517,10 @@
       <c r="I325">
         <f>((C325-C324)^2+(D325- D324)^2)^.5</f>
       </c>
-      <c r="J325" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K325" s="2" t="s">
+      <c r="J325" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K325" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L325" t="n">
@@ -9552,28 +9564,28 @@
       </c>
     </row>
     <row r="327">
-      <c r="A327" t="s" s="2">
+      <c r="A327" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B327" t="s" s="2">
+      <c r="B327" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C327" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D327" t="s" s="2">
+      <c r="C327" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D327" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E327" t="s" s="2">
+      <c r="E327" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F327" t="s" s="2">
+      <c r="F327" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G327" t="s" s="2">
+      <c r="G327" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H327" t="s" s="2">
+      <c r="H327" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9598,28 +9610,28 @@
       </c>
     </row>
     <row r="329">
-      <c r="B329" t="s" s="2">
+      <c r="B329" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C329" t="s" s="2">
+      <c r="C329" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D329" t="s" s="2">
+      <c r="D329" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E329" t="s" s="2">
+      <c r="E329" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F329" t="s" s="2">
+      <c r="F329" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G329" t="s" s="2">
+      <c r="G329" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H329" t="s" s="2">
+      <c r="H329" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I329" t="s" s="2">
+      <c r="I329" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9678,10 +9690,10 @@
       <c r="I331">
         <f>((C331-C330)^2+(D331- D330)^2)^.5</f>
       </c>
-      <c r="J331" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K331" s="2" t="s">
+      <c r="J331" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K331" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L331" t="n">
@@ -9725,28 +9737,28 @@
       </c>
     </row>
     <row r="333">
-      <c r="A333" t="s" s="2">
+      <c r="A333" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B333" t="s" s="2">
+      <c r="B333" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C333" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D333" t="s" s="2">
+      <c r="C333" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D333" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E333" t="s" s="2">
+      <c r="E333" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F333" t="s" s="2">
+      <c r="F333" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G333" t="s" s="2">
+      <c r="G333" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H333" t="s" s="2">
+      <c r="H333" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9771,28 +9783,28 @@
       </c>
     </row>
     <row r="335">
-      <c r="B335" t="s" s="2">
+      <c r="B335" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C335" t="s" s="2">
+      <c r="C335" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D335" t="s" s="2">
+      <c r="D335" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E335" t="s" s="2">
+      <c r="E335" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F335" t="s" s="2">
+      <c r="F335" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G335" t="s" s="2">
+      <c r="G335" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H335" t="s" s="2">
+      <c r="H335" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I335" t="s" s="2">
+      <c r="I335" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9851,10 +9863,10 @@
       <c r="I337">
         <f>((C337-C336)^2+(D337- D336)^2)^.5</f>
       </c>
-      <c r="J337" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K337" s="2" t="s">
+      <c r="J337" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K337" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L337" t="n">
@@ -9898,28 +9910,28 @@
       </c>
     </row>
     <row r="339">
-      <c r="A339" t="s" s="2">
+      <c r="A339" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B339" t="s" s="2">
+      <c r="B339" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C339" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D339" t="s" s="2">
+      <c r="C339" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D339" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E339" t="s" s="2">
+      <c r="E339" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F339" t="s" s="2">
+      <c r="F339" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G339" t="s" s="2">
+      <c r="G339" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H339" t="s" s="2">
+      <c r="H339" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9944,28 +9956,28 @@
       </c>
     </row>
     <row r="341">
-      <c r="B341" t="s" s="2">
+      <c r="B341" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C341" t="s" s="2">
+      <c r="C341" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D341" t="s" s="2">
+      <c r="D341" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E341" t="s" s="2">
+      <c r="E341" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F341" t="s" s="2">
+      <c r="F341" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G341" t="s" s="2">
+      <c r="G341" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H341" t="s" s="2">
+      <c r="H341" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I341" t="s" s="2">
+      <c r="I341" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10024,10 +10036,10 @@
       <c r="I343">
         <f>((C343-C342)^2+(D343- D342)^2)^.5</f>
       </c>
-      <c r="J343" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K343" s="2" t="s">
+      <c r="J343" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K343" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L343" t="n">
@@ -10071,28 +10083,28 @@
       </c>
     </row>
     <row r="345">
-      <c r="A345" t="s" s="2">
+      <c r="A345" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B345" t="s" s="2">
+      <c r="B345" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C345" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D345" t="s" s="2">
+      <c r="C345" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D345" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E345" t="s" s="2">
+      <c r="E345" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F345" t="s" s="2">
+      <c r="F345" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G345" t="s" s="2">
+      <c r="G345" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H345" t="s" s="2">
+      <c r="H345" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10117,28 +10129,28 @@
       </c>
     </row>
     <row r="347">
-      <c r="B347" t="s" s="2">
+      <c r="B347" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C347" t="s" s="2">
+      <c r="C347" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D347" t="s" s="2">
+      <c r="D347" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E347" t="s" s="2">
+      <c r="E347" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F347" t="s" s="2">
+      <c r="F347" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G347" t="s" s="2">
+      <c r="G347" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H347" t="s" s="2">
+      <c r="H347" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I347" t="s" s="2">
+      <c r="I347" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10197,10 +10209,10 @@
       <c r="I349">
         <f>((C349-C348)^2+(D349- D348)^2)^.5</f>
       </c>
-      <c r="J349" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K349" s="2" t="s">
+      <c r="J349" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K349" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L349" t="n">
@@ -10244,28 +10256,28 @@
       </c>
     </row>
     <row r="351">
-      <c r="A351" t="s" s="2">
+      <c r="A351" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B351" t="s" s="2">
+      <c r="B351" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C351" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D351" t="s" s="2">
+      <c r="C351" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D351" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E351" t="s" s="2">
+      <c r="E351" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F351" t="s" s="2">
+      <c r="F351" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G351" t="s" s="2">
+      <c r="G351" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H351" t="s" s="2">
+      <c r="H351" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10290,28 +10302,28 @@
       </c>
     </row>
     <row r="353">
-      <c r="B353" t="s" s="2">
+      <c r="B353" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C353" t="s" s="2">
+      <c r="C353" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D353" t="s" s="2">
+      <c r="D353" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E353" t="s" s="2">
+      <c r="E353" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F353" t="s" s="2">
+      <c r="F353" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G353" t="s" s="2">
+      <c r="G353" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H353" t="s" s="2">
+      <c r="H353" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I353" t="s" s="2">
+      <c r="I353" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10370,10 +10382,10 @@
       <c r="I355">
         <f>((C355-C354)^2+(D355- D354)^2)^.5</f>
       </c>
-      <c r="J355" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K355" s="2" t="s">
+      <c r="J355" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K355" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L355" t="n">
@@ -10417,28 +10429,28 @@
       </c>
     </row>
     <row r="357">
-      <c r="A357" t="s" s="2">
+      <c r="A357" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B357" t="s" s="2">
+      <c r="B357" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C357" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D357" t="s" s="2">
+      <c r="C357" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D357" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E357" t="s" s="2">
+      <c r="E357" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F357" t="s" s="2">
+      <c r="F357" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G357" t="s" s="2">
+      <c r="G357" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H357" t="s" s="2">
+      <c r="H357" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10463,28 +10475,28 @@
       </c>
     </row>
     <row r="359">
-      <c r="B359" t="s" s="2">
+      <c r="B359" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C359" t="s" s="2">
+      <c r="C359" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D359" t="s" s="2">
+      <c r="D359" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E359" t="s" s="2">
+      <c r="E359" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F359" t="s" s="2">
+      <c r="F359" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G359" t="s" s="2">
+      <c r="G359" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H359" t="s" s="2">
+      <c r="H359" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I359" t="s" s="2">
+      <c r="I359" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10543,10 +10555,10 @@
       <c r="I361">
         <f>((C361-C360)^2+(D361- D360)^2)^.5</f>
       </c>
-      <c r="J361" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K361" s="2" t="s">
+      <c r="J361" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K361" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L361" t="n">
@@ -10590,28 +10602,28 @@
       </c>
     </row>
     <row r="363">
-      <c r="A363" t="s" s="2">
+      <c r="A363" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B363" t="s" s="2">
+      <c r="B363" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C363" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D363" t="s" s="2">
+      <c r="C363" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D363" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E363" t="s" s="2">
+      <c r="E363" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F363" t="s" s="2">
+      <c r="F363" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G363" t="s" s="2">
+      <c r="G363" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H363" t="s" s="2">
+      <c r="H363" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10636,28 +10648,28 @@
       </c>
     </row>
     <row r="365">
-      <c r="B365" t="s" s="2">
+      <c r="B365" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C365" t="s" s="2">
+      <c r="C365" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D365" t="s" s="2">
+      <c r="D365" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E365" t="s" s="2">
+      <c r="E365" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F365" t="s" s="2">
+      <c r="F365" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G365" t="s" s="2">
+      <c r="G365" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H365" t="s" s="2">
+      <c r="H365" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I365" t="s" s="2">
+      <c r="I365" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10716,10 +10728,10 @@
       <c r="I367">
         <f>((C367-C366)^2+(D367- D366)^2)^.5</f>
       </c>
-      <c r="J367" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K367" s="2" t="s">
+      <c r="J367" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K367" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L367" t="n">
@@ -10763,28 +10775,28 @@
       </c>
     </row>
     <row r="369">
-      <c r="A369" t="s" s="2">
+      <c r="A369" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B369" t="s" s="2">
+      <c r="B369" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C369" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D369" t="s" s="2">
+      <c r="C369" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D369" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E369" t="s" s="2">
+      <c r="E369" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F369" t="s" s="2">
+      <c r="F369" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G369" t="s" s="2">
+      <c r="G369" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H369" t="s" s="2">
+      <c r="H369" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10809,28 +10821,28 @@
       </c>
     </row>
     <row r="371">
-      <c r="B371" t="s" s="2">
+      <c r="B371" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C371" t="s" s="2">
+      <c r="C371" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D371" t="s" s="2">
+      <c r="D371" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E371" t="s" s="2">
+      <c r="E371" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F371" t="s" s="2">
+      <c r="F371" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G371" t="s" s="2">
+      <c r="G371" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H371" t="s" s="2">
+      <c r="H371" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I371" t="s" s="2">
+      <c r="I371" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10889,10 +10901,10 @@
       <c r="I373">
         <f>((C373-C372)^2+(D373- D372)^2)^.5</f>
       </c>
-      <c r="J373" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K373" s="2" t="s">
+      <c r="J373" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K373" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L373" t="n">
@@ -10936,28 +10948,28 @@
       </c>
     </row>
     <row r="375">
-      <c r="A375" t="s" s="2">
+      <c r="A375" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B375" t="s" s="2">
+      <c r="B375" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C375" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D375" t="s" s="2">
+      <c r="C375" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D375" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E375" t="s" s="2">
+      <c r="E375" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F375" t="s" s="2">
+      <c r="F375" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G375" t="s" s="2">
+      <c r="G375" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H375" t="s" s="2">
+      <c r="H375" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10982,28 +10994,28 @@
       </c>
     </row>
     <row r="377">
-      <c r="B377" t="s" s="2">
+      <c r="B377" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C377" t="s" s="2">
+      <c r="C377" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D377" t="s" s="2">
+      <c r="D377" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E377" t="s" s="2">
+      <c r="E377" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F377" t="s" s="2">
+      <c r="F377" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G377" t="s" s="2">
+      <c r="G377" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H377" t="s" s="2">
+      <c r="H377" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I377" t="s" s="2">
+      <c r="I377" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11062,10 +11074,10 @@
       <c r="I379">
         <f>((C379-C378)^2+(D379- D378)^2)^.5</f>
       </c>
-      <c r="J379" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K379" s="2" t="s">
+      <c r="J379" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K379" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L379" t="n">
@@ -11109,28 +11121,28 @@
       </c>
     </row>
     <row r="381">
-      <c r="A381" t="s" s="2">
+      <c r="A381" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B381" t="s" s="2">
+      <c r="B381" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C381" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D381" t="s" s="2">
+      <c r="C381" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D381" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E381" t="s" s="2">
+      <c r="E381" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F381" t="s" s="2">
+      <c r="F381" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G381" t="s" s="2">
+      <c r="G381" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H381" t="s" s="2">
+      <c r="H381" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11155,28 +11167,28 @@
       </c>
     </row>
     <row r="383">
-      <c r="B383" t="s" s="2">
+      <c r="B383" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C383" t="s" s="2">
+      <c r="C383" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D383" t="s" s="2">
+      <c r="D383" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E383" t="s" s="2">
+      <c r="E383" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F383" t="s" s="2">
+      <c r="F383" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G383" t="s" s="2">
+      <c r="G383" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H383" t="s" s="2">
+      <c r="H383" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I383" t="s" s="2">
+      <c r="I383" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11235,10 +11247,10 @@
       <c r="I385">
         <f>((C385-C384)^2+(D385- D384)^2)^.5</f>
       </c>
-      <c r="J385" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K385" s="2" t="s">
+      <c r="J385" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K385" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L385" t="n">
@@ -11282,28 +11294,28 @@
       </c>
     </row>
     <row r="387">
-      <c r="A387" t="s" s="2">
+      <c r="A387" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B387" t="s" s="2">
+      <c r="B387" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C387" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D387" t="s" s="2">
+      <c r="C387" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D387" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E387" t="s" s="2">
+      <c r="E387" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F387" t="s" s="2">
+      <c r="F387" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G387" t="s" s="2">
+      <c r="G387" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H387" t="s" s="2">
+      <c r="H387" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11328,28 +11340,28 @@
       </c>
     </row>
     <row r="389">
-      <c r="B389" t="s" s="2">
+      <c r="B389" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C389" t="s" s="2">
+      <c r="C389" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D389" t="s" s="2">
+      <c r="D389" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E389" t="s" s="2">
+      <c r="E389" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F389" t="s" s="2">
+      <c r="F389" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G389" t="s" s="2">
+      <c r="G389" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H389" t="s" s="2">
+      <c r="H389" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I389" t="s" s="2">
+      <c r="I389" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11408,10 +11420,10 @@
       <c r="I391">
         <f>((C391-C390)^2+(D391- D390)^2)^.5</f>
       </c>
-      <c r="J391" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K391" s="2" t="s">
+      <c r="J391" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K391" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L391" t="n">
@@ -11455,28 +11467,28 @@
       </c>
     </row>
     <row r="393">
-      <c r="A393" t="s" s="2">
+      <c r="A393" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B393" t="s" s="2">
+      <c r="B393" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C393" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D393" t="s" s="2">
+      <c r="C393" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D393" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E393" t="s" s="2">
+      <c r="E393" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F393" t="s" s="2">
+      <c r="F393" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G393" t="s" s="2">
+      <c r="G393" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H393" t="s" s="2">
+      <c r="H393" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11501,28 +11513,28 @@
       </c>
     </row>
     <row r="395">
-      <c r="B395" t="s" s="2">
+      <c r="B395" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C395" t="s" s="2">
+      <c r="C395" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D395" t="s" s="2">
+      <c r="D395" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E395" t="s" s="2">
+      <c r="E395" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F395" t="s" s="2">
+      <c r="F395" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G395" t="s" s="2">
+      <c r="G395" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H395" t="s" s="2">
+      <c r="H395" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I395" t="s" s="2">
+      <c r="I395" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11581,10 +11593,10 @@
       <c r="I397">
         <f>((C397-C396)^2+(D397- D396)^2)^.5</f>
       </c>
-      <c r="J397" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K397" s="2" t="s">
+      <c r="J397" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K397" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L397" t="n">
@@ -11628,28 +11640,28 @@
       </c>
     </row>
     <row r="399">
-      <c r="A399" t="s" s="2">
+      <c r="A399" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B399" t="s" s="2">
+      <c r="B399" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C399" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D399" t="s" s="2">
+      <c r="C399" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D399" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E399" t="s" s="2">
+      <c r="E399" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F399" t="s" s="2">
+      <c r="F399" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G399" t="s" s="2">
+      <c r="G399" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H399" t="s" s="2">
+      <c r="H399" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11674,28 +11686,28 @@
       </c>
     </row>
     <row r="401">
-      <c r="B401" t="s" s="2">
+      <c r="B401" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C401" t="s" s="2">
+      <c r="C401" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D401" t="s" s="2">
+      <c r="D401" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E401" t="s" s="2">
+      <c r="E401" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F401" t="s" s="2">
+      <c r="F401" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G401" t="s" s="2">
+      <c r="G401" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H401" t="s" s="2">
+      <c r="H401" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I401" t="s" s="2">
+      <c r="I401" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11754,10 +11766,10 @@
       <c r="I403">
         <f>((C403-C402)^2+(D403- D402)^2)^.5</f>
       </c>
-      <c r="J403" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K403" s="2" t="s">
+      <c r="J403" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K403" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L403" t="n">
@@ -11801,28 +11813,28 @@
       </c>
     </row>
     <row r="405">
-      <c r="A405" t="s" s="2">
+      <c r="A405" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B405" t="s" s="2">
+      <c r="B405" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C405" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D405" t="s" s="2">
+      <c r="C405" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D405" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E405" t="s" s="2">
+      <c r="E405" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F405" t="s" s="2">
+      <c r="F405" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G405" t="s" s="2">
+      <c r="G405" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H405" t="s" s="2">
+      <c r="H405" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11847,28 +11859,28 @@
       </c>
     </row>
     <row r="407">
-      <c r="B407" t="s" s="2">
+      <c r="B407" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C407" t="s" s="2">
+      <c r="C407" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D407" t="s" s="2">
+      <c r="D407" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E407" t="s" s="2">
+      <c r="E407" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F407" t="s" s="2">
+      <c r="F407" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G407" t="s" s="2">
+      <c r="G407" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H407" t="s" s="2">
+      <c r="H407" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I407" t="s" s="2">
+      <c r="I407" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11956,10 +11968,10 @@
       <c r="I410">
         <f>((C410-C409)^2+(D410- D409)^2)^.5</f>
       </c>
-      <c r="J410" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K410" s="2" t="s">
+      <c r="J410" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K410" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L410" t="n">
@@ -12003,28 +12015,28 @@
       </c>
     </row>
     <row r="412">
-      <c r="A412" t="s" s="2">
+      <c r="A412" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B412" t="s" s="2">
+      <c r="B412" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C412" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D412" t="s" s="2">
+      <c r="C412" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D412" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E412" t="s" s="2">
+      <c r="E412" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F412" t="s" s="2">
+      <c r="F412" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G412" t="s" s="2">
+      <c r="G412" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H412" t="s" s="2">
+      <c r="H412" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -12049,28 +12061,28 @@
       </c>
     </row>
     <row r="414">
-      <c r="B414" t="s" s="2">
+      <c r="B414" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C414" t="s" s="2">
+      <c r="C414" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D414" t="s" s="2">
+      <c r="D414" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E414" t="s" s="2">
+      <c r="E414" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F414" t="s" s="2">
+      <c r="F414" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G414" t="s" s="2">
+      <c r="G414" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H414" t="s" s="2">
+      <c r="H414" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I414" t="s" s="2">
+      <c r="I414" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12129,10 +12141,10 @@
       <c r="I416">
         <f>((C416-C415)^2+(D416- D415)^2)^.5</f>
       </c>
-      <c r="J416" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K416" s="2" t="s">
+      <c r="J416" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K416" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L416" t="n">
@@ -12176,28 +12188,28 @@
       </c>
     </row>
     <row r="418">
-      <c r="A418" t="s" s="2">
+      <c r="A418" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B418" t="s" s="2">
+      <c r="B418" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C418" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D418" t="s" s="2">
+      <c r="C418" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D418" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E418" t="s" s="2">
+      <c r="E418" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F418" t="s" s="2">
+      <c r="F418" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G418" t="s" s="2">
+      <c r="G418" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H418" t="s" s="2">
+      <c r="H418" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -12222,28 +12234,28 @@
       </c>
     </row>
     <row r="420">
-      <c r="B420" t="s" s="2">
+      <c r="B420" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C420" t="s" s="2">
+      <c r="C420" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D420" t="s" s="2">
+      <c r="D420" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E420" t="s" s="2">
+      <c r="E420" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F420" t="s" s="2">
+      <c r="F420" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G420" t="s" s="2">
+      <c r="G420" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H420" t="s" s="2">
+      <c r="H420" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I420" t="s" s="2">
+      <c r="I420" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12302,10 +12314,10 @@
       <c r="I422">
         <f>((C422-C421)^2+(D422- D421)^2)^.5</f>
       </c>
-      <c r="J422" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K422" s="2" t="s">
+      <c r="J422" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K422" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L422" t="n">
@@ -12349,28 +12361,28 @@
       </c>
     </row>
     <row r="424">
-      <c r="A424" t="s" s="2">
+      <c r="A424" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B424" t="s" s="2">
+      <c r="B424" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C424" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D424" t="s" s="2">
+      <c r="C424" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D424" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E424" t="s" s="2">
+      <c r="E424" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F424" t="s" s="2">
+      <c r="F424" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G424" t="s" s="2">
+      <c r="G424" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H424" t="s" s="2">
+      <c r="H424" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -12395,28 +12407,28 @@
       </c>
     </row>
     <row r="426">
-      <c r="B426" t="s" s="2">
+      <c r="B426" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C426" t="s" s="2">
+      <c r="C426" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D426" t="s" s="2">
+      <c r="D426" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E426" t="s" s="2">
+      <c r="E426" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F426" t="s" s="2">
+      <c r="F426" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G426" t="s" s="2">
+      <c r="G426" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H426" t="s" s="2">
+      <c r="H426" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I426" t="s" s="2">
+      <c r="I426" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12475,10 +12487,10 @@
       <c r="I428">
         <f>((C428-C427)^2+(D428- D427)^2)^.5</f>
       </c>
-      <c r="J428" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K428" s="2" t="s">
+      <c r="J428" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K428" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L428" t="n">
@@ -12522,28 +12534,28 @@
       </c>
     </row>
     <row r="430">
-      <c r="A430" t="s" s="2">
+      <c r="A430" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B430" t="s" s="2">
+      <c r="B430" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C430" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D430" t="s" s="2">
+      <c r="C430" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D430" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E430" t="s" s="2">
+      <c r="E430" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F430" t="s" s="2">
+      <c r="F430" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G430" t="s" s="2">
+      <c r="G430" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H430" t="s" s="2">
+      <c r="H430" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -12568,28 +12580,28 @@
       </c>
     </row>
     <row r="432">
-      <c r="B432" t="s" s="2">
+      <c r="B432" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C432" t="s" s="2">
+      <c r="C432" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D432" t="s" s="2">
+      <c r="D432" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E432" t="s" s="2">
+      <c r="E432" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F432" t="s" s="2">
+      <c r="F432" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G432" t="s" s="2">
+      <c r="G432" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H432" t="s" s="2">
+      <c r="H432" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I432" t="s" s="2">
+      <c r="I432" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12648,10 +12660,10 @@
       <c r="I434">
         <f>((C434-C433)^2+(D434- D433)^2)^.5</f>
       </c>
-      <c r="J434" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K434" s="2" t="s">
+      <c r="J434" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K434" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L434" t="n">
@@ -12695,28 +12707,28 @@
       </c>
     </row>
     <row r="436">
-      <c r="A436" t="s" s="2">
+      <c r="A436" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B436" t="s" s="2">
+      <c r="B436" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C436" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D436" t="s" s="2">
+      <c r="C436" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D436" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E436" t="s" s="2">
+      <c r="E436" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F436" t="s" s="2">
+      <c r="F436" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G436" t="s" s="2">
+      <c r="G436" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H436" t="s" s="2">
+      <c r="H436" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -12741,28 +12753,28 @@
       </c>
     </row>
     <row r="438">
-      <c r="B438" t="s" s="2">
+      <c r="B438" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C438" t="s" s="2">
+      <c r="C438" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D438" t="s" s="2">
+      <c r="D438" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E438" t="s" s="2">
+      <c r="E438" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F438" t="s" s="2">
+      <c r="F438" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G438" t="s" s="2">
+      <c r="G438" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H438" t="s" s="2">
+      <c r="H438" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I438" t="s" s="2">
+      <c r="I438" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12821,10 +12833,10 @@
       <c r="I440">
         <f>((C440-C439)^2+(D440- D439)^2)^.5</f>
       </c>
-      <c r="J440" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K440" s="2" t="s">
+      <c r="J440" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K440" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L440" t="n">
@@ -12868,28 +12880,28 @@
       </c>
     </row>
     <row r="442">
-      <c r="A442" t="s" s="2">
+      <c r="A442" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B442" t="s" s="2">
+      <c r="B442" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C442" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D442" t="s" s="2">
+      <c r="C442" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D442" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E442" t="s" s="2">
+      <c r="E442" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F442" t="s" s="2">
+      <c r="F442" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G442" t="s" s="2">
+      <c r="G442" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H442" t="s" s="2">
+      <c r="H442" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -12914,28 +12926,28 @@
       </c>
     </row>
     <row r="444">
-      <c r="B444" t="s" s="2">
+      <c r="B444" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C444" t="s" s="2">
+      <c r="C444" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D444" t="s" s="2">
+      <c r="D444" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E444" t="s" s="2">
+      <c r="E444" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F444" t="s" s="2">
+      <c r="F444" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G444" t="s" s="2">
+      <c r="G444" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H444" t="s" s="2">
+      <c r="H444" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I444" t="s" s="2">
+      <c r="I444" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -13023,10 +13035,10 @@
       <c r="I447">
         <f>((C447-C446)^2+(D447- D446)^2)^.5</f>
       </c>
-      <c r="J447" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K447" s="2" t="s">
+      <c r="J447" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K447" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L447" t="n">
@@ -13070,28 +13082,28 @@
       </c>
     </row>
     <row r="449">
-      <c r="A449" t="s" s="2">
+      <c r="A449" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B449" t="s" s="2">
+      <c r="B449" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C449" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D449" t="s" s="2">
+      <c r="C449" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D449" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E449" t="s" s="2">
+      <c r="E449" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F449" t="s" s="2">
+      <c r="F449" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G449" t="s" s="2">
+      <c r="G449" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H449" t="s" s="2">
+      <c r="H449" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -13116,28 +13128,28 @@
       </c>
     </row>
     <row r="451">
-      <c r="B451" t="s" s="2">
+      <c r="B451" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C451" t="s" s="2">
+      <c r="C451" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D451" t="s" s="2">
+      <c r="D451" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E451" t="s" s="2">
+      <c r="E451" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F451" t="s" s="2">
+      <c r="F451" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G451" t="s" s="2">
+      <c r="G451" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H451" t="s" s="2">
+      <c r="H451" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I451" t="s" s="2">
+      <c r="I451" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -13225,10 +13237,10 @@
       <c r="I454">
         <f>((C454-C453)^2+(D454- D453)^2)^.5</f>
       </c>
-      <c r="J454" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K454" s="2" t="s">
+      <c r="J454" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K454" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L454" t="n">
@@ -13272,28 +13284,28 @@
       </c>
     </row>
     <row r="456">
-      <c r="A456" t="s" s="2">
+      <c r="A456" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B456" t="s" s="2">
+      <c r="B456" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C456" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D456" t="s" s="2">
+      <c r="C456" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D456" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E456" t="s" s="2">
+      <c r="E456" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F456" t="s" s="2">
+      <c r="F456" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G456" t="s" s="2">
+      <c r="G456" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H456" t="s" s="2">
+      <c r="H456" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -13318,28 +13330,28 @@
       </c>
     </row>
     <row r="458">
-      <c r="B458" t="s" s="2">
+      <c r="B458" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C458" t="s" s="2">
+      <c r="C458" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D458" t="s" s="2">
+      <c r="D458" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E458" t="s" s="2">
+      <c r="E458" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F458" t="s" s="2">
+      <c r="F458" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G458" t="s" s="2">
+      <c r="G458" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H458" t="s" s="2">
+      <c r="H458" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I458" t="s" s="2">
+      <c r="I458" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -13398,10 +13410,10 @@
       <c r="I460">
         <f>((C460-C459)^2+(D460- D459)^2)^.5</f>
       </c>
-      <c r="J460" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K460" s="2" t="s">
+      <c r="J460" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K460" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L460" t="n">
@@ -13445,28 +13457,28 @@
       </c>
     </row>
     <row r="462">
-      <c r="A462" t="s" s="2">
+      <c r="A462" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B462" t="s" s="2">
+      <c r="B462" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C462" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D462" t="s" s="2">
+      <c r="C462" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D462" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E462" t="s" s="2">
+      <c r="E462" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F462" t="s" s="2">
+      <c r="F462" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G462" t="s" s="2">
+      <c r="G462" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H462" t="s" s="2">
+      <c r="H462" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -13491,28 +13503,28 @@
       </c>
     </row>
     <row r="464">
-      <c r="B464" t="s" s="2">
+      <c r="B464" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C464" t="s" s="2">
+      <c r="C464" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D464" t="s" s="2">
+      <c r="D464" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E464" t="s" s="2">
+      <c r="E464" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F464" t="s" s="2">
+      <c r="F464" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G464" t="s" s="2">
+      <c r="G464" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H464" t="s" s="2">
+      <c r="H464" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I464" t="s" s="2">
+      <c r="I464" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -13571,10 +13583,10 @@
       <c r="I466">
         <f>((C466-C465)^2+(D466- D465)^2)^.5</f>
       </c>
-      <c r="J466" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K466" s="2" t="s">
+      <c r="J466" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K466" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L466" t="n">
